--- a/Прикладное/Лр3 Попков/Попков_Т893_ЛР3_Задание2.xlsx
+++ b/Прикладное/Лр3 Попков/Попков_Т893_ЛР3_Задание2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDFA16-9913-409C-AA8F-BDB2D3303D60}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автозаполнение1" sheetId="1" r:id="rId1"/>
@@ -58,7 +59,7 @@
     <definedName name="Тариф3">Зарплата!$B$5</definedName>
     <definedName name="Тариф4">Зарплата!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -516,11 +517,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="###0,&quot;тыс. руб.&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$-419]d\ mmm\ yy;@"/>
+    <numFmt numFmtId="164" formatCode="###0,&quot;тыс. руб.&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="[$-419]d\ mmm\ yy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1122,35 +1123,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1173,16 +1174,16 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1213,10 +1214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1256,72 +1257,6 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1369,6 +1304,72 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1392,13 +1393,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1408,6 +1402,13 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1429,19 +1430,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1535,13 +1523,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1554,6 +1535,26 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1570,13 +1571,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="d" dataDxfId="12"/>
-    <tableColumn id="2" name="n" dataDxfId="11"/>
-    <tableColumn id="3" name="A(n)" dataDxfId="10"/>
-    <tableColumn id="4" name="S(n)" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="d" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="n" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="A(n)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S(n)" dataDxfId="8">
       <calculatedColumnFormula>(C2+$C$2)*B2/2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1585,13 +1586,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A4:D15" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A4:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица13" displayName="Таблица13" ref="A4:D15" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A4:D15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Год" dataDxfId="3"/>
-    <tableColumn id="2" name="Торговля" dataDxfId="1"/>
-    <tableColumn id="3" name="Производство" dataDxfId="0"/>
-    <tableColumn id="4" name="Доля торговли" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Год" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Торговля" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Производство" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Доля торговли" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1859,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2184,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2197,7 +2198,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>107</v>
       </c>
@@ -2235,7 +2236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2574,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2617,7 +2618,7 @@
         <v>317760</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>116</v>
       </c>
@@ -2659,10 +2660,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2896,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3276,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3469,7 +3470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4212,7 +4213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4440,11 +4441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,32 +4635,32 @@
         <v>95</v>
       </c>
       <c r="B9" s="82">
-        <f>B4+B5+B6+B7</f>
-        <v>357.06</v>
+        <f>B4+B5+B6+B7+B8</f>
+        <v>423.5</v>
       </c>
       <c r="C9" s="82">
-        <f t="shared" ref="C9:H9" si="0">C4+C5+C6+C7</f>
-        <v>630.74</v>
+        <f t="shared" ref="C9:H9" si="0">C4+C5+C6+C7+C8</f>
+        <v>702.03</v>
       </c>
       <c r="D9" s="82">
         <f t="shared" si="0"/>
-        <v>611.54</v>
+        <v>729.38</v>
       </c>
       <c r="E9" s="82">
         <f t="shared" si="0"/>
-        <v>680.1099999999999</v>
+        <v>868.87999999999988</v>
       </c>
       <c r="F9" s="82">
         <f t="shared" si="0"/>
-        <v>913.56999999999994</v>
+        <v>1273.58</v>
       </c>
       <c r="G9" s="82">
         <f t="shared" si="0"/>
-        <v>1106.25</v>
+        <v>1516.79</v>
       </c>
       <c r="H9" s="82">
         <f t="shared" si="0"/>
-        <v>790.68</v>
+        <v>1056.3499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4667,32 +4668,32 @@
         <v>96</v>
       </c>
       <c r="B10" s="82">
-        <f>Налог*B9</f>
-        <v>25.886849999999999</v>
+        <f t="shared" ref="B10:H10" si="1">Налог*B9</f>
+        <v>30.703749999999999</v>
       </c>
       <c r="C10" s="82">
-        <f>Налог*C9</f>
-        <v>45.728649999999995</v>
+        <f t="shared" si="1"/>
+        <v>50.897174999999997</v>
       </c>
       <c r="D10" s="82">
-        <f>Налог*D9</f>
-        <v>44.336649999999992</v>
+        <f t="shared" si="1"/>
+        <v>52.880049999999997</v>
       </c>
       <c r="E10" s="82">
-        <f>Налог*E9</f>
-        <v>49.307974999999992</v>
+        <f t="shared" si="1"/>
+        <v>62.993799999999986</v>
       </c>
       <c r="F10" s="82">
-        <f>Налог*F9</f>
-        <v>66.233824999999996</v>
+        <f t="shared" si="1"/>
+        <v>92.334549999999993</v>
       </c>
       <c r="G10" s="82">
-        <f>Налог*G9</f>
-        <v>80.203125</v>
+        <f t="shared" si="1"/>
+        <v>109.96727499999999</v>
       </c>
       <c r="H10" s="82">
-        <f>Налог*H9</f>
-        <v>57.324299999999994</v>
+        <f t="shared" si="1"/>
+        <v>76.585374999999985</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4701,31 +4702,31 @@
       </c>
       <c r="B11" s="83">
         <f>B9+B10</f>
-        <v>382.94684999999998</v>
+        <v>454.20375000000001</v>
       </c>
       <c r="C11" s="83">
-        <f t="shared" ref="C11:H11" si="1">C9+C10</f>
-        <v>676.46865000000003</v>
+        <f t="shared" ref="C11:H11" si="2">C9+C10</f>
+        <v>752.92717499999992</v>
       </c>
       <c r="D11" s="83">
-        <f t="shared" si="1"/>
-        <v>655.87664999999993</v>
+        <f t="shared" si="2"/>
+        <v>782.26004999999998</v>
       </c>
       <c r="E11" s="83">
-        <f t="shared" si="1"/>
-        <v>729.41797499999984</v>
+        <f t="shared" si="2"/>
+        <v>931.87379999999985</v>
       </c>
       <c r="F11" s="83">
-        <f t="shared" si="1"/>
-        <v>979.80382499999996</v>
+        <f t="shared" si="2"/>
+        <v>1365.91455</v>
       </c>
       <c r="G11" s="83">
-        <f t="shared" si="1"/>
-        <v>1186.453125</v>
+        <f t="shared" si="2"/>
+        <v>1626.7572749999999</v>
       </c>
       <c r="H11" s="83">
-        <f t="shared" si="1"/>
-        <v>848.00429999999994</v>
+        <f t="shared" si="2"/>
+        <v>1132.9353749999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4758,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
